--- a/uploads/horario.xlsx
+++ b/uploads/horario.xlsx
@@ -55,7 +55,7 @@
     <r>
       <rPr>
         <sz val="10.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Facultad de INGENIERÍA
@@ -64,7 +64,7 @@
     <r>
       <rPr>
         <sz val="10.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Departamento de SISTEMAS E INFORMATICA Horarios por Materias - PRIMER SEMESTRE del 2024</t>
@@ -217,7 +217,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0410303A</t>
@@ -227,7 +227,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA EDUCATIVA</t>
@@ -237,7 +237,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">17:00-18:30 TE000</t>
@@ -247,7 +247,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0417901A</t>
@@ -257,7 +257,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA</t>
@@ -267,7 +267,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">18:30-20:00 TE000</t>
@@ -277,7 +277,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0430502A</t>
@@ -287,7 +287,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO: ESTADO DEL ARTE</t>
@@ -297,7 +297,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-15:30 TE000</t>
@@ -307,7 +307,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0430619A</t>
@@ -317,7 +317,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">LENGUAJE GRAFICO</t>
@@ -327,7 +327,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:30 TE000</t>
@@ -337,7 +337,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0430620A</t>
@@ -347,7 +347,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SISTEMAS INFORMATICOS</t>
@@ -357,7 +357,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">15:30-17:00 TE000</t>
@@ -367,7 +367,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0430625A</t>
@@ -377,7 +377,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO:DIDACTICA DE LA INFORMATICA</t>
@@ -387,7 +387,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0430719A</t>
@@ -397,7 +397,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INGENIERIA DE SOFTWARE</t>
@@ -407,7 +407,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-17:30 TE000</t>
@@ -417,7 +417,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0430720A</t>
@@ -427,7 +427,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">AUDITORIA DE SISTEMAS</t>
@@ -437,7 +437,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-13:30 TE000</t>
@@ -447,7 +447,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0465306A</t>
@@ -457,7 +457,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">COMPUTACION I</t>
@@ -467,7 +467,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0466307A</t>
@@ -477,7 +477,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">COMPUTACION II</t>
@@ -487,7 +487,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0513019A</t>
@@ -497,7 +497,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">HERRAMIENTAS INFORMATICAS</t>
@@ -507,7 +507,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 SD403</t>
@@ -517,7 +517,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0513019B</t>
@@ -527,7 +527,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 AN404</t>
@@ -537,7 +537,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0536016A</t>
@@ -547,7 +547,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">18:00-20:00 AG302</t>
@@ -557,7 +557,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0536016B</t>
@@ -567,7 +567,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 FU202</t>
@@ -577,7 +577,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0552016A</t>
@@ -587,7 +587,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SE103</t>
@@ -597,7 +597,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0552016B</t>
@@ -607,7 +607,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SE201</t>
@@ -617,7 +617,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690303A</t>
@@ -627,7 +627,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ESTRUCTURAS DE DATOS I</t>
@@ -637,7 +637,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:30-09:00 TE000</t>
@@ -647,7 +647,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690404A</t>
@@ -657,7 +657,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SISTEMAS OPERATIVOS I</t>
@@ -667,7 +667,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-07:30 TE000</t>
@@ -677,7 +677,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690501A</t>
@@ -687,7 +687,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ANALISIS Y DISEÑO DE SISTEMAS II</t>
@@ -697,7 +697,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690502A</t>
@@ -707,7 +707,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">LENGUAJES DE PROGRAMACION</t>
@@ -717,7 +717,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690503A</t>
@@ -727,7 +727,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SISTEMAS OPERATIVOS II</t>
@@ -737,7 +737,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690601A</t>
@@ -747,7 +747,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">BASES DE DATOS</t>
@@ -757,7 +757,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690602A</t>
@@ -767,7 +767,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">LENGUAJES DE PROGRAMACION AVANZADA II</t>
@@ -777,7 +777,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0690603A</t>
@@ -787,7 +787,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TELEINFORMATICA</t>
@@ -797,7 +797,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:30-12:00 TE000</t>
@@ -807,7 +807,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0700005A</t>
@@ -817,7 +817,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INTRODUCCION A LOS COMPUTADORTES</t>
@@ -827,7 +827,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0700005B</t>
@@ -837,7 +837,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0700005C</t>
@@ -847,7 +847,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0700005
@@ -856,7 +856,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -866,7 +866,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0700005Y</t>
@@ -876,7 +876,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0700005Z</t>
@@ -886,7 +886,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701206A</t>
@@ -896,7 +896,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TEORIA GENERAL DE SISTEMAS</t>
@@ -906,7 +906,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701206B</t>
@@ -916,7 +916,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701206C</t>
@@ -926,7 +926,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701206D</t>
@@ -936,7 +936,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701206
@@ -945,7 +945,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -955,7 +955,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701206Y</t>
@@ -965,7 +965,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701206Z</t>
@@ -975,7 +975,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701304A</t>
@@ -985,7 +985,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SISTEMAS OPERATIVOS</t>
@@ -995,7 +995,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701304B</t>
@@ -1005,7 +1005,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701304C</t>
@@ -1015,7 +1015,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701304D</t>
@@ -1025,7 +1025,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701304
@@ -1034,7 +1034,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1044,7 +1044,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701304Y</t>
@@ -1054,7 +1054,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701304Z</t>
@@ -1064,7 +1064,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701404A</t>
@@ -1074,7 +1074,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SISTEMAS DE INFORMACION</t>
@@ -1084,7 +1084,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701404B</t>
@@ -1094,7 +1094,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701404C</t>
@@ -1104,7 +1104,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701404
@@ -1113,7 +1113,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1123,7 +1123,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701404Y</t>
@@ -1133,7 +1133,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701404Z</t>
@@ -1143,7 +1143,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701505A</t>
@@ -1153,7 +1153,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">17:00-18:30 SF401</t>
@@ -1163,7 +1163,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701505B</t>
@@ -1173,7 +1173,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">21:15-22:00 TE000</t>
@@ -1183,7 +1183,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701505C</t>
@@ -1193,7 +1193,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701505
@@ -1202,7 +1202,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1212,7 +1212,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701505Y</t>
@@ -1222,7 +1222,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701505Z</t>
@@ -1232,7 +1232,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701604A</t>
@@ -1242,7 +1242,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">18:30-20:00 SF403</t>
@@ -1252,7 +1252,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701604B</t>
@@ -1262,7 +1262,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701604C</t>
@@ -1272,7 +1272,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">19:00-20:30 TE000</t>
@@ -1282,7 +1282,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701604
@@ -1291,7 +1291,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1301,7 +1301,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701604X</t>
@@ -1311,7 +1311,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701604Y</t>
@@ -1321,7 +1321,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701604Z</t>
@@ -1331,7 +1331,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701605A</t>
@@ -1341,7 +1341,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">LENGUAJE DE PROGRAMACION I</t>
@@ -1351,7 +1351,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:30-12:00 SD403</t>
@@ -1361,7 +1361,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701605B</t>
@@ -1371,7 +1371,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701605
@@ -1380,7 +1380,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1390,7 +1390,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701605X</t>
@@ -1400,7 +1400,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701605Y</t>
@@ -1410,7 +1410,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701605Z</t>
@@ -1420,7 +1420,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701705A</t>
@@ -1430,7 +1430,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">REDES Y LABORATORIOS</t>
@@ -1440,7 +1440,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701705B</t>
@@ -1450,7 +1450,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701705C</t>
@@ -1460,7 +1460,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701705
@@ -1469,7 +1469,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1479,7 +1479,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701705Y</t>
@@ -1489,7 +1489,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701705Z</t>
@@ -1499,7 +1499,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701706A</t>
@@ -1509,7 +1509,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">LENGUAJE DE PROGRAMACION II</t>
@@ -1519,7 +1519,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:30 SF401</t>
@@ -1529,7 +1529,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701706B</t>
@@ -1539,7 +1539,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701706C</t>
@@ -1549,7 +1549,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701706
@@ -1558,7 +1558,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1568,7 +1568,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701706Y</t>
@@ -1578,7 +1578,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701706Z</t>
@@ -1588,7 +1588,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701806A</t>
@@ -1598,7 +1598,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">LENGUAJE DE PROGRAMACION III</t>
@@ -1608,7 +1608,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701806B</t>
@@ -1618,7 +1618,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701806
@@ -1627,7 +1627,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1637,7 +1637,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701806Y</t>
@@ -1647,7 +1647,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701806Z</t>
@@ -1657,7 +1657,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701905A</t>
@@ -1667,7 +1667,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INTELIGENCIA ARTIFICIAL</t>
@@ -1677,7 +1677,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701905B</t>
@@ -1687,7 +1687,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701905
@@ -1696,7 +1696,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -1706,7 +1706,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701905Y</t>
@@ -1716,7 +1716,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0701905Z</t>
@@ -1726,7 +1726,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0711406A</t>
@@ -1736,7 +1736,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">20:00-21:15 TE000</t>
@@ -1746,7 +1746,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0730060A</t>
@@ -1756,7 +1756,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ELECTIVA IV</t>
@@ -1766,7 +1766,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0730503A</t>
@@ -1776,7 +1776,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PEDAGOGIA, TECNOLOGIA Y TELECUMUNICACIO</t>
@@ -1786,7 +1786,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0730809A</t>
@@ -1796,7 +1796,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">DISEÑO DE SIST DE INFORMACION</t>
@@ -1806,7 +1806,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0730940A</t>
@@ -1816,7 +1816,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ELECTIVA III</t>
@@ -1826,7 +1826,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0731601A</t>
@@ -1836,7 +1836,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ELECTIVA I</t>
@@ -1846,7 +1846,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0731601B</t>
@@ -1856,7 +1856,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0731904A</t>
@@ -1866,7 +1866,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ELECTIVA II</t>
@@ -1876,7 +1876,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0792103A</t>
@@ -1886,7 +1886,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA I</t>
@@ -1896,7 +1896,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0792302A</t>
@@ -1906,7 +1906,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA II</t>
@@ -1916,7 +1916,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0792306A</t>
@@ -1926,7 +1926,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">CURSO LIBRE II (AMBIENTES VIRTUALES)</t>
@@ -1936,7 +1936,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">0851403A</t>
@@ -1946,7 +1946,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">CIENCIA NUEVA TECNOLOGIA Y CULTURA</t>
@@ -1956,7 +1956,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1090213A</t>
@@ -1966,7 +1966,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ALGORITMOS Y PROGRAMACIÓN DE COMPUTADORES</t>
@@ -1976,7 +1976,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-08:00 SF402</t>
@@ -1986,7 +1986,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SC402</t>
@@ -1996,7 +1996,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1090213B</t>
@@ -2006,7 +2006,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-08:00 SF401</t>
@@ -2016,7 +2016,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SF401</t>
@@ -2026,7 +2026,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1090313A</t>
@@ -2036,7 +2036,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">LENGUAJE DE PROGRAMACIÓN</t>
@@ -2046,7 +2046,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SF403</t>
@@ -2056,7 +2056,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-07:00 SF401</t>
@@ -2066,7 +2066,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1090313B</t>
@@ -2076,7 +2076,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-14:00 SF404</t>
@@ -2086,7 +2086,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-13:00 SF404</t>
@@ -2096,7 +2096,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110103A</t>
@@ -2106,7 +2106,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PROGRAMACION DE COMPUTADORES</t>
@@ -2116,7 +2116,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SB403</t>
@@ -2126,7 +2126,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-08:00 SB403</t>
@@ -2136,7 +2136,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110103B</t>
@@ -2146,7 +2146,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SC402
@@ -2155,7 +2155,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">13:00-14:00 SC401</t>
@@ -2165,7 +2165,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110103C</t>
@@ -2175,7 +2175,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-13:00 SF401</t>
@@ -2185,7 +2185,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-14:00 SF403</t>
@@ -2195,7 +2195,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110204A</t>
@@ -2205,7 +2205,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA APLICADA</t>
@@ -2215,7 +2215,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-13:00 SD402</t>
@@ -2225,7 +2225,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SF402</t>
@@ -2235,7 +2235,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110204B</t>
@@ -2245,7 +2245,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SF401</t>
@@ -2255,7 +2255,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110204C</t>
@@ -2265,7 +2265,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SF403</t>
@@ -2275,7 +2275,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">11:00-12:00 SD402</t>
@@ -2285,7 +2285,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110204D</t>
@@ -2295,7 +2295,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SF403</t>
@@ -2305,7 +2305,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-13:00 SF402</t>
@@ -2315,7 +2315,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1110204E</t>
@@ -2325,7 +2325,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SB401</t>
@@ -2335,7 +2335,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1120124A</t>
@@ -2345,7 +2345,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SC402</t>
@@ -2355,7 +2355,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:00 SC402</t>
@@ -2365,7 +2365,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1120124B</t>
@@ -2375,7 +2375,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 SC402</t>
@@ -2385,7 +2385,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SE301</t>
@@ -2395,7 +2395,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1120124C</t>
@@ -2405,7 +2405,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 TE000</t>
@@ -2415,7 +2415,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1120223A</t>
@@ -2425,7 +2425,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">COMPUTACIóN II</t>
@@ -2435,7 +2435,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SB203</t>
@@ -2445,7 +2445,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SF404</t>
@@ -2455,7 +2455,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1120223B</t>
@@ -2465,7 +2465,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SC401</t>
@@ -2475,7 +2475,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155102A</t>
@@ -2485,7 +2485,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">MATEMATICAS DISCRETAS</t>
@@ -2495,7 +2495,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SA402</t>
@@ -2505,7 +2505,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:00 SA414</t>
@@ -2515,7 +2515,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155102B</t>
@@ -2525,7 +2525,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">11:00-12:00 SB402</t>
@@ -2535,7 +2535,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SB401</t>
@@ -2545,7 +2545,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155102C</t>
@@ -2555,7 +2555,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SB403</t>
@@ -2565,7 +2565,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:00 SA402</t>
@@ -2575,7 +2575,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155104A</t>
@@ -2585,7 +2585,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">FUNDAMENTOS DE PROGRAMACION</t>
@@ -2595,7 +2595,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SA401</t>
@@ -2605,7 +2605,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SA401</t>
@@ -2615,7 +2615,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155104B</t>
@@ -2625,7 +2625,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SA403</t>
@@ -2635,7 +2635,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SB404</t>
@@ -2645,7 +2645,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155105A</t>
@@ -2655,7 +2655,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INTRODUCCION ING SISTEMAS</t>
@@ -2665,7 +2665,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SF404</t>
@@ -2675,7 +2675,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SA403</t>
@@ -2685,7 +2685,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155105B</t>
@@ -2695,7 +2695,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:00 SA403</t>
@@ -2705,7 +2705,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SF403</t>
@@ -2715,7 +2715,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155204A</t>
@@ -2725,7 +2725,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PROGRAMACION ORIENTADA A OBJETOS</t>
@@ -2735,7 +2735,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SB404</t>
@@ -2745,7 +2745,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SB402</t>
@@ -2755,7 +2755,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155204B</t>
@@ -2765,7 +2765,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SA403</t>
@@ -2775,7 +2775,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155204C</t>
@@ -2785,7 +2785,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SC401</t>
@@ -2795,7 +2795,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SB402</t>
@@ -2805,7 +2805,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155209A</t>
@@ -2815,7 +2815,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO INTEGRADOR I</t>
@@ -2825,7 +2825,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SA403</t>
@@ -2835,7 +2835,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155209B</t>
@@ -2845,7 +2845,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SC402</t>
@@ -2855,7 +2855,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155304A</t>
@@ -2865,7 +2865,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ESTRUCTURAS DE DATOS</t>
@@ -2875,7 +2875,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SA402</t>
@@ -2885,7 +2885,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SA401</t>
@@ -2895,7 +2895,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155304B</t>
@@ -2905,7 +2905,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155304C</t>
@@ -2915,7 +2915,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SA411</t>
@@ -2925,7 +2925,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SC401</t>
@@ -2935,7 +2935,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155305A</t>
@@ -2945,7 +2945,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PROGRAMACION ORIENTADA A OBJETOS II</t>
@@ -2955,7 +2955,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SA414</t>
@@ -2965,7 +2965,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155305B</t>
@@ -2975,7 +2975,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SB401</t>
@@ -2985,7 +2985,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SB403</t>
@@ -2995,7 +2995,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155306A</t>
@@ -3005,7 +3005,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO DE INVESTIGACION I</t>
@@ -3015,7 +3015,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155306B</t>
@@ -3025,7 +3025,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SB402</t>
@@ -3035,7 +3035,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155404A</t>
@@ -3045,7 +3045,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ANALISIS DE ALGORITMOS</t>
@@ -3055,7 +3055,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155404B</t>
@@ -3065,7 +3065,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SA402</t>
@@ -3075,7 +3075,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155405A</t>
@@ -3085,7 +3085,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TEORIA DE LA COMPUTACION</t>
@@ -3095,7 +3095,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SA401</t>
@@ -3105,7 +3105,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155405B</t>
@@ -3115,7 +3115,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SA402</t>
@@ -3125,7 +3125,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155504A</t>
@@ -3135,7 +3135,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ARQUITECTURA DE COMPUTADORES</t>
@@ -3145,7 +3145,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-08:00 SB404</t>
@@ -3155,7 +3155,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SB404</t>
@@ -3165,7 +3165,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155504B</t>
@@ -3175,7 +3175,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-07:00 SB404</t>
@@ -3185,7 +3185,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155504C</t>
@@ -3195,7 +3195,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-07:00 SA402</t>
@@ -3205,7 +3205,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155506A</t>
@@ -3215,7 +3215,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO DE INVESTIGACION II</t>
@@ -3225,7 +3225,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SC402</t>
@@ -3235,7 +3235,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155506B</t>
@@ -3245,7 +3245,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155523A</t>
@@ -3255,7 +3255,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ANALíTICA DE DATOS EN MODELOS COGNITIVOS</t>
@@ -3265,7 +3265,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-14:00 SC401</t>
@@ -3275,7 +3275,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-13:00 SB401</t>
@@ -3285,7 +3285,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155604A</t>
@@ -3295,7 +3295,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SA411</t>
@@ -3305,7 +3305,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SA411</t>
@@ -3315,7 +3315,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155604B</t>
@@ -3325,7 +3325,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155605A</t>
@@ -3335,7 +3335,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SA414</t>
@@ -3345,7 +3345,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155605B</t>
@@ -3355,7 +3355,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155605C</t>
@@ -3365,7 +3365,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155606A</t>
@@ -3375,7 +3375,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PROGRAMACION WEB</t>
@@ -3385,7 +3385,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155606B</t>
@@ -3395,7 +3395,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155606C</t>
@@ -3405,7 +3405,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155608A</t>
@@ -3415,7 +3415,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PLANEACION ESTRATEGICA DE SISTEMAS DE INF</t>
@@ -3425,7 +3425,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SB402</t>
@@ -3435,7 +3435,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155608B</t>
@@ -3445,7 +3445,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:00 SA209</t>
@@ -3455,7 +3455,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155609A</t>
@@ -3465,7 +3465,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO INTEGRADOR II</t>
@@ -3475,7 +3475,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155609B</t>
@@ -3485,7 +3485,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155611A</t>
@@ -3495,7 +3495,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PROYECTO SOCIAL EN ING DE SISTEMAS</t>
@@ -3505,7 +3505,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 SA401</t>
@@ -3515,7 +3515,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155615A</t>
@@ -3525,7 +3525,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">MULTIMEDIA Y REALIDAD MIXTA</t>
@@ -3535,7 +3535,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">15:00-18:00 SA401</t>
@@ -3545,7 +3545,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155616A</t>
@@ -3555,7 +3555,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">APLICACIONES PRáCTICAS DE TEORIA DE GRAFOS</t>
@@ -3565,7 +3565,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SC401</t>
@@ -3575,7 +3575,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155704A</t>
@@ -3585,7 +3585,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TEORIA GENERAL DE LAS COMUNICACIONES</t>
@@ -3595,7 +3595,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SA412</t>
@@ -3605,7 +3605,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SA412</t>
@@ -3615,7 +3615,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155704B</t>
@@ -3625,7 +3625,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SA412</t>
@@ -3635,7 +3635,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155705A</t>
@@ -3645,7 +3645,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ANALISIS Y DISEÑO DE SISTEMAS</t>
@@ -3655,7 +3655,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155706A</t>
@@ -3665,7 +3665,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO DE INVESTIGACION III</t>
@@ -3675,7 +3675,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155706B</t>
@@ -3685,7 +3685,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155706C</t>
@@ -3695,7 +3695,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155708A</t>
@@ -3705,7 +3705,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ADMINISTRACION DE PROYECTOS INFORMATICOS</t>
@@ -3715,7 +3715,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SC402</t>
@@ -3725,7 +3725,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155708B</t>
@@ -3735,7 +3735,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SB404</t>
@@ -3745,7 +3745,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155713A</t>
@@ -3755,7 +3755,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">BASES DE DATOS AVANZADAS</t>
@@ -3765,7 +3765,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SA414</t>
@@ -3775,7 +3775,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155714A</t>
@@ -3785,7 +3785,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TRANSFORMACIóN DIGITAL DE LAS ORGANIZACION</t>
@@ -3795,7 +3795,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-09:00 SA412</t>
@@ -3805,7 +3805,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155715A</t>
@@ -3815,7 +3815,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SOLUCIONES TECNOLOGICA EN EL CONTEXTO SOCI</t>
@@ -3825,7 +3825,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-17:00 SA401</t>
@@ -3835,7 +3835,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155804A</t>
@@ -3845,7 +3845,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">REDES DE COMPUTADORES</t>
@@ -3855,7 +3855,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SB403</t>
@@ -3865,7 +3865,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155804B</t>
@@ -3875,7 +3875,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155805A</t>
@@ -3885,7 +3885,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SA414</t>
@@ -3895,7 +3895,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155808A</t>
@@ -3905,7 +3905,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">FORMULACION Y EVALUACION DE PROYECTOS DE S</t>
@@ -3915,7 +3915,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:00 SA401</t>
@@ -3925,7 +3925,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155808B</t>
@@ -3935,7 +3935,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SA401</t>
@@ -3945,7 +3945,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155809A</t>
@@ -3955,7 +3955,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEMINARIO INTEGRADOR III</t>
@@ -3965,7 +3965,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155809B</t>
@@ -3975,7 +3975,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155905A</t>
@@ -3985,7 +3985,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ARQUITECTURA DE SOFTWARE</t>
@@ -3995,7 +3995,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155908A</t>
@@ -4005,7 +4005,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">GESTION DE TICS</t>
@@ -4015,7 +4015,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SA311</t>
@@ -4025,7 +4025,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155909A</t>
@@ -4035,7 +4035,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PRACTICA EN ING DE SISTEMAS</t>
@@ -4045,7 +4045,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-18:00 SA411</t>
@@ -4055,7 +4055,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155909B</t>
@@ -4065,7 +4065,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-18:00 SA312</t>
@@ -4075,7 +4075,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1155909C</t>
@@ -4085,7 +4085,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-18:00 SA414</t>
@@ -4095,7 +4095,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1156703A</t>
@@ -4105,7 +4105,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SB401</t>
@@ -4115,7 +4115,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1156802A</t>
@@ -4125,7 +4125,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-10:00 SA402</t>
@@ -4135,7 +4135,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1156804A</t>
@@ -4145,7 +4145,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ADMINISTRACION DE SO DE RED</t>
@@ -4155,7 +4155,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1156805A</t>
@@ -4165,7 +4165,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">GERENCIA Y TECNOLOGIA</t>
@@ -4175,7 +4175,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1156901A</t>
@@ -4185,7 +4185,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">DESARROLLO DE APLICACIONES MOVILES</t>
@@ -4195,7 +4195,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-10:00 SA411</t>
@@ -4205,7 +4205,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1156902A</t>
@@ -4215,7 +4215,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">SEGURIDAD INFORMATICA</t>
@@ -4225,7 +4225,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-08:00 SB401</t>
@@ -4235,7 +4235,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1157003A</t>
@@ -4245,7 +4245,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA JURIDICA</t>
@@ -4255,7 +4255,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:00-10:00 SB401</t>
@@ -4265,7 +4265,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1157004A</t>
@@ -4275,7 +4275,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">COMPUTACION EN LA NUBE</t>
@@ -4285,7 +4285,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-12:00 SA403</t>
@@ -4295,7 +4295,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1157005A</t>
@@ -4305,7 +4305,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">MINERIA DE DATOS</t>
@@ -4315,7 +4315,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">11:00-12:00 SA414</t>
@@ -4325,7 +4325,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1157007A</t>
@@ -4335,7 +4335,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">DESARROLLO DE APLICACIONES BASADAS EN MICR</t>
@@ -4345,7 +4345,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SA411</t>
@@ -4355,7 +4355,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1160013A</t>
@@ -4365,7 +4365,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">17:00-18:00 SF202</t>
@@ -4375,7 +4375,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 SF404</t>
@@ -4385,7 +4385,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1160013B</t>
@@ -4395,7 +4395,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-17:00 SC402</t>
@@ -4405,7 +4405,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 SF401</t>
@@ -4415,7 +4415,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1160013C</t>
@@ -4425,7 +4425,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-15:00 SD402</t>
@@ -4435,7 +4435,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1160023A</t>
@@ -4445,7 +4445,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SF404</t>
@@ -4455,7 +4455,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">11:00-12:00 SB403</t>
@@ -4465,7 +4465,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1160023B</t>
@@ -4475,7 +4475,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SC401
@@ -4484,7 +4484,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-17:00 SP108</t>
@@ -4494,7 +4494,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1160023C</t>
@@ -4504,7 +4504,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-17:00 FU302</t>
@@ -4514,7 +4514,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1180152A</t>
@@ -4524,7 +4524,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SF401</t>
@@ -4534,7 +4534,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1180152B</t>
@@ -4544,7 +4544,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-13:00 SF402</t>
@@ -4554,7 +4554,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1180254A</t>
@@ -4564,7 +4564,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">FUNDAMENTO DE BASE DE DATOS</t>
@@ -4574,7 +4574,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">17:00-20:00 SC402</t>
@@ -4584,7 +4584,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1191103A</t>
@@ -4594,7 +4594,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-09:00 SD401</t>
@@ -4604,7 +4604,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1191103B</t>
@@ -4614,7 +4614,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">11:00-12:00 SD404</t>
@@ -4624,7 +4624,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1191203A</t>
@@ -4634,7 +4634,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">FUNDAMENTOS BASE DE DATOS</t>
@@ -4644,7 +4644,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">11:00-12:00 SB404</t>
@@ -4654,7 +4654,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1191203B</t>
@@ -4664,7 +4664,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-15:00 SC401</t>
@@ -4674,7 +4674,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 SC401</t>
@@ -4684,7 +4684,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1191203C</t>
@@ -4694,7 +4694,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">13:00-14:00 SF404</t>
@@ -4704,7 +4704,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SF404</t>
@@ -4714,7 +4714,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1210232A</t>
@@ -4724,7 +4724,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">HABILIDADES INFORMáTICAS</t>
@@ -4734,7 +4734,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1210232B</t>
@@ -4744,7 +4744,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SC401</t>
@@ -4754,7 +4754,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1210232C</t>
@@ -4764,7 +4764,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-18:00 SE302</t>
@@ -4774,7 +4774,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1210232D</t>
@@ -4784,7 +4784,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SD401</t>
@@ -4794,7 +4794,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1250232A</t>
@@ -4804,7 +4804,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">20:00-22:00 SD402</t>
@@ -4814,7 +4814,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1250232B</t>
@@ -4824,7 +4824,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">20:00-22:00 SB404</t>
@@ -4834,7 +4834,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1300902A</t>
@@ -4844,7 +4844,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">DISEÑO DE CURSOS VIRTUALES</t>
@@ -4854,7 +4854,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 TE000</t>
@@ -4864,7 +4864,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SE303</t>
@@ -4874,7 +4874,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1420304B</t>
@@ -4884,7 +4884,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1420304C</t>
@@ -4894,7 +4894,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1420304D</t>
@@ -4904,7 +4904,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1420304E</t>
@@ -4914,7 +4914,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1430106A</t>
@@ -4924,7 +4924,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA BASICA</t>
@@ -4934,7 +4934,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1470101A</t>
@@ -4944,7 +4944,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1481108C</t>
@@ -4954,7 +4954,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">INFORMATICA Y TELEMATICA</t>
@@ -4964,7 +4964,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-13:30 SD402</t>
@@ -4974,7 +4974,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1481108I</t>
@@ -4984,7 +4984,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1481108J</t>
@@ -4994,7 +4994,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1490106A</t>
@@ -5004,7 +5004,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1490106B</t>
@@ -5014,7 +5014,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1490106C</t>
@@ -5024,7 +5024,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1490106D</t>
@@ -5034,7 +5034,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1490106E</t>
@@ -5044,7 +5044,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1490106F</t>
@@ -5054,7 +5054,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1490106
@@ -5063,7 +5063,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">W</t>
@@ -5073,7 +5073,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1610426A</t>
@@ -5083,7 +5083,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ALGORITMO Y PROGRAMACION</t>
@@ -5093,7 +5093,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-17:00 SB401</t>
@@ -5103,7 +5103,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1610426B</t>
@@ -5113,7 +5113,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SF403
@@ -5122,7 +5122,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">16:00-17:00 SF403</t>
@@ -5132,7 +5132,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1642205A</t>
@@ -5142,7 +5142,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TECNOLOGIAS DE INFORMACION Y COMUNICACION</t>
@@ -5152,7 +5152,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-08:00 SE103</t>
@@ -5162,7 +5162,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1642205B</t>
@@ -5172,7 +5172,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1654014B</t>
@@ -5182,7 +5182,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ALGORITMOS Y PROGRAMACION</t>
@@ -5192,7 +5192,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-16:00 SD403</t>
@@ -5202,7 +5202,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1710206A</t>
@@ -5212,7 +5212,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TIC Y EDUCACIÒN</t>
@@ -5222,7 +5222,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:30-09:00 SD401</t>
@@ -5232,7 +5232,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1710206B</t>
@@ -5242,7 +5242,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:30-09:00 SF401</t>
@@ -5252,7 +5252,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1890104B</t>
@@ -5262,7 +5262,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-14:00 TE000</t>
@@ -5272,7 +5272,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1922105A</t>
@@ -5282,7 +5282,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PROGRAMACION COMPUTADORES</t>
@@ -5292,7 +5292,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-14:00 SB403</t>
@@ -5302,7 +5302,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:00 SB402</t>
@@ -5312,7 +5312,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1922105B</t>
@@ -5322,7 +5322,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-14:00 SB402</t>
@@ -5332,7 +5332,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">17:00-18:00 SB402</t>
@@ -5342,7 +5342,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1922105C</t>
@@ -5352,7 +5352,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">12:00-14:00 SD401</t>
@@ -5362,7 +5362,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">17:00-18:00 SD401</t>
@@ -5372,7 +5372,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1922301A</t>
@@ -5382,7 +5382,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-07:00 SF403</t>
@@ -5392,7 +5392,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1922301B</t>
@@ -5402,7 +5402,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SD402</t>
@@ -5412,7 +5412,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-07:00 SF404</t>
@@ -5422,7 +5422,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1951104A</t>
@@ -5432,7 +5432,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-12:00 SD403</t>
@@ -5442,7 +5442,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1951104B</t>
@@ -5452,7 +5452,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1982105A</t>
@@ -5462,7 +5462,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SF403</t>
@@ -5472,7 +5472,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1982105B</t>
@@ -5482,7 +5482,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">08:00-10:00 SD403</t>
@@ -5492,7 +5492,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">11:00-12:00 SF403</t>
@@ -5502,7 +5502,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">1982105C</t>
@@ -5512,7 +5512,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">10:00-11:00 SC104</t>
@@ -5522,7 +5522,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2421105A</t>
@@ -5532,7 +5532,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">PROGRAMACIÓN DE COMPUTADORES</t>
@@ -5542,7 +5542,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">09:00-10:30 SF402</t>
@@ -5552,7 +5552,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2421105B</t>
@@ -5562,7 +5562,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">07:30-09:00 SF402</t>
@@ -5572,7 +5572,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2421105C</t>
@@ -5582,7 +5582,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2421301A</t>
@@ -5592,7 +5592,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">06:00-07:30 SF401</t>
@@ -5602,7 +5602,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2421301B</t>
@@ -5612,7 +5612,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2480105A</t>
@@ -5622,7 +5622,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">TECNOLOGIAS DE INFORMACIÓN Y COMUNICACION</t>
@@ -5632,7 +5632,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-15:30 SD402</t>
@@ -5642,7 +5642,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2480105B</t>
@@ -5652,7 +5652,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">15:30-17:00 SD402</t>
@@ -5662,7 +5662,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2480105D</t>
@@ -5672,7 +5672,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">14:00-15:30 SF404</t>
@@ -5682,7 +5682,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">2480105E</t>
@@ -5692,7 +5692,7 @@
     <r>
       <rPr>
         <sz val="7.0"/>
-        <rFont val="Arial MT"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">15:30-17:00 SF404</t>
@@ -5726,12 +5726,12 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="Arial MT"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
-      <name val="Arial MT"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5827,7 +5827,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5847,7 +5847,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5864,10 +5864,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>70100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5887,7 +5892,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5900,7 +5905,7 @@
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5977,8 +5982,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5994,7 +5999,7 @@
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6014,7 +6019,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6104,8 +6109,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6121,7 +6126,7 @@
 <file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6141,7 +6146,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6231,8 +6236,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6245,10 +6250,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>70100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6268,7 +6278,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6281,7 +6291,7 @@
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6358,8 +6368,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6375,7 +6385,7 @@
 <file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6395,7 +6405,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6485,8 +6495,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6502,7 +6512,7 @@
 <file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6522,7 +6532,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6612,8 +6622,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6699,8 +6709,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6716,7 +6726,7 @@
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6736,7 +6746,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6826,8 +6836,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6843,7 +6853,7 @@
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="70099" y="706320"/>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6863,7 +6873,7 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8978400" y="0"/>
+                <a:pt x="8978395" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6953,8 +6963,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="539999" y="179999"/>
-            <a:ext cx="539999" cy="539999"/>
+            <a:off x="540000" y="179994"/>
+            <a:ext cx="540000" cy="540000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7290,7 +7300,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7312,6 +7321,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10277,7 +10287,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10320,6 +10329,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/uploads/horario.xlsx
+++ b/uploads/horario.xlsx
@@ -5864,15 +5864,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>70100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5905,7 +5900,7 @@
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6250,15 +6245,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>70100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="70100" y="706320"/>
     <xdr:ext cx="8978900" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6291,7 +6281,7 @@
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7300,6 +7290,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7321,7 +7312,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10287,6 +10277,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10329,7 +10320,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
